--- a/docs/mapping.xlsx
+++ b/docs/mapping.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\CS26020\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\Git Hub\robotCode\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{89B9BED3-7EE9-428B-8925-BD3844E7ABEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>0,0</t>
   </si>
@@ -174,13 +175,19 @@
   </si>
   <si>
     <t>if there are walls</t>
+  </si>
+  <si>
+    <t>[0][3]                   null</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +238,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +268,18 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -473,14 +499,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,9 +516,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -612,8 +636,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -895,471 +932,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="8" max="16" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="4.88671875" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="5.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-    </row>
-    <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="40" t="s">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="15"/>
+      <c r="H2" s="45" t="s">
         <v>45</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="33" t="s">
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="33" t="s">
+      <c r="F3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14" t="s">
+      <c r="R3" s="15"/>
+    </row>
+    <row r="4" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="14" t="s">
+      <c r="F4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A5" s="16"/>
-      <c r="B5" s="15" t="s">
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="35" t="s">
+      <c r="C5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="H5" s="32" t="s">
+      <c r="F5" s="15"/>
+      <c r="H5" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="15" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="11" t="s">
+      <c r="O5" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="42" t="s">
+      <c r="Q5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="16"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-    </row>
-    <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H8" s="1"/>
-      <c r="I8" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="24" t="s">
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+    </row>
+    <row r="7" spans="1:18" ht="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:18" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="49"/>
+      <c r="I8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="49"/>
+      <c r="K8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="49"/>
+      <c r="M8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="49"/>
+      <c r="O8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="49"/>
+    </row>
+    <row r="9" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="24" t="s">
+      <c r="L9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="30" t="s">
+      <c r="N9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="1"/>
-      <c r="I10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="49"/>
+      <c r="I10" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="47"/>
+      <c r="K10" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="47"/>
+      <c r="M10" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="47"/>
+      <c r="O10" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="49"/>
+    </row>
+    <row r="11" spans="1:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="H11" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="22" t="s">
+      <c r="H11" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="L11" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="29" t="s">
+      <c r="N11" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="49"/>
+      <c r="I12" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="47"/>
+      <c r="K12" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="48"/>
+      <c r="O12" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="49"/>
+    </row>
+    <row r="13" spans="1:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="H13" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="25" t="s">
+      <c r="J13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="25" t="s">
+      <c r="L13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="29" t="s">
+      <c r="N13" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="1"/>
-      <c r="I14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="19" t="s">
+      <c r="P13" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="49"/>
+      <c r="I14" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="47"/>
+      <c r="O14" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="49"/>
+    </row>
+    <row r="15" spans="1:18" ht="40.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="23" t="s">
+      <c r="H15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="26" t="s">
+      <c r="J15" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="27" t="s">
+      <c r="L15" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="28" t="s">
+      <c r="N15" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="18" t="s">
+      <c r="P15" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="H16" s="49"/>
+      <c r="I16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="49"/>
+      <c r="K16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="49"/>
+      <c r="O16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="49"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H22" s="31" t="s">
+    <row r="22" spans="2:16" ht="48" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H22" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H23" s="1"/>
-      <c r="I23" s="17" t="b">
+      <c r="I23" s="16" t="b">
         <v>1</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="17" t="b">
+      <c r="K23" s="16" t="b">
         <v>1</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="17" t="b">
+      <c r="M23" s="16" t="b">
         <v>1</v>
       </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="17" t="b">
+      <c r="O23" s="16" t="b">
         <v>1</v>
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="21" t="s">
+    <row r="24" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="23" t="s">
         <v>33</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O24" s="30" t="s">
+      <c r="O24" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H25" s="1"/>
       <c r="I25" s="3" t="s">
         <v>39</v>
@@ -1378,39 +1425,39 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="22" t="s">
+      <c r="H26" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="24" t="s">
         <v>28</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="24" t="s">
         <v>30</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="29" t="s">
+      <c r="O26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>47</v>
       </c>
@@ -1432,39 +1479,39 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="22" t="s">
+      <c r="H28" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="21" t="s">
         <v>26</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="24" t="s">
         <v>29</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="24" t="s">
         <v>31</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="29" t="s">
+      <c r="O28" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="P28" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>49</v>
       </c>
@@ -1486,55 +1533,55 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H30" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="23" t="s">
+    <row r="30" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="26" t="s">
+      <c r="J30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M30" s="27" t="s">
+      <c r="L30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="26" t="s">
         <v>38</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O30" s="28" t="s">
+      <c r="O30" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H31" s="1"/>
-      <c r="I31" s="17" t="b">
+      <c r="I31" s="16" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="17" t="b">
+      <c r="K31" s="16" t="b">
         <v>1</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="17" t="b">
+      <c r="M31" s="16" t="b">
         <v>1</v>
       </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="17" t="b">
+      <c r="O31" s="16" t="b">
         <v>1</v>
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H35" t="s">
         <v>43</v>
       </c>
